--- a/medicine/Enfance/Antonio_Skármeta/Antonio_Skármeta.xlsx
+++ b/medicine/Enfance/Antonio_Skármeta/Antonio_Skármeta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antonio_Sk%C3%A1rmeta</t>
+          <t>Antonio_Skármeta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Esteban Antonio Skármeta Vranicic, dit Antonio Skármeta, né le 7 novembre 1940 à Antofagasta, est un écrivain chilien d'origine croate.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antonio_Sk%C3%A1rmeta</t>
+          <t>Antonio_Skármeta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonio Skármeta tient ses origines du village de Bobovišće sur l'île dalmate de Brač, d'où viennent ses parents, Antonio Skarmeta Šimunović et Magdalena Vraničić, émigrés au Chili. Il a la double nationalité chilienne et croate[réf. souhaitée].
 Il obtient une bourse Fulbright, en 1964, pour étudier à l'Université Columbia (New York, États-Unis). Il participe à la vie théâtrale, cinématographique et musicale de Manhattan (New York).
@@ -524,7 +538,7 @@
 Il a aussi créé et animé une émission littéraire, « El show de los libros », sur TVN.
 Il a reçu le Prix du livre de jeunesse sur la tolérance, décerné par l'UNESCO, en 2002, grâce à son livre de littérature pour la jeunesse La composición, puis le Prix Planeta pour El baile de la victoria en 2003.
 Sa pièce de théâtre inédite El Plebiscito a inspiré la réalisation du film No (2012) et concourt en 2013 à l'Oscar du meilleur film en langue étrangère.
-En 2014, il reçoit le prix national de littérature, plus haute récompense littéraire du Chili[1].
+En 2014, il reçoit le prix national de littérature, plus haute récompense littéraire du Chili.
 Son œuvre lui vaut de figurer aujourd'hui parmi les écrivains chiliens et hispanophones contemporains de tout premier plan[réf. nécessaire].
 </t>
         </is>
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Antonio_Sk%C3%A1rmeta</t>
+          <t>Antonio_Skármeta</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,8 +570,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Soñé que la nieve ardía (1975) Publié en français sous le titre Beaux enfants, vous perdez la plus belle rose, traduit par Laure Guille-Bataillon, Paris, Gallimard, coll. « Du monde entier », 1979  (ISBN 2-07-028602-9)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Soñé que la nieve ardía (1975) Publié en français sous le titre Beaux enfants, vous perdez la plus belle rose, traduit par Laure Guille-Bataillon, Paris, Gallimard, coll. « Du monde entier », 1979  (ISBN 2-07-028602-9)
 Joven narrativa Chilena después del golpe (1976)
 Chileno! (1979)
 No pasó nada (1980) Publié en français sous le titre T'es pas mort !, traduit par Laure Bataillon, Paris, Éditions du Seuil, coll. « Points. Point-virgule » no 9, 1982  (ISBN 2-02-006223-2)
@@ -569,54 +588,192 @@
 La chica del trombón (2001) Publié en français sous le titre La Fille et le Trombone, traduit par Alice Seelow , Paris, Grasset, 2004  (ISBN 2-246-63261-7) ; réédition, Paris, LGF, coll. « le Livre de poche » no 30579, 2006  (ISBN 978-2-253-11115-3)
 El baile de la victoria (2003) Publié en français sous le titre Le Ballet de la victoire, traduit par Alice Seelow , Paris, Grasset, 2005  (ISBN 2-246-67671-1) ; réédition, Paris, LGF, coll. « le Livre de poche » no 31163, 2008  (ISBN 978-2-253-11962-3)
 Un padre de película (2010) Publié en français sous le titre Un père lointain, traduit par Alice Seelow , Paris, Grasset, 2010  (ISBN 978-2-246-77531-7)
-Los dias del Arcoiris (2011) Publié en français sous le titre Les Jours de l'arc-en-ciel, traduit par Alice Seelow , Paris, Grasset, 2013  (ISBN 978-2-246-79438-7) ; réédition, Paris, Points no P3262, 2014  (ISBN 978-2-7578-3850-1)
-Recueils de contes, récits, poèmes ou nouvelles
-El entusiasmo (1967)
+Los dias del Arcoiris (2011) Publié en français sous le titre Les Jours de l'arc-en-ciel, traduit par Alice Seelow , Paris, Grasset, 2013  (ISBN 978-2-246-79438-7) ; réédition, Paris, Points no P3262, 2014  (ISBN 978-2-7578-3850-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Antonio_Skármeta</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antonio_Sk%C3%A1rmeta</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueils de contes, récits, poèmes ou nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>El entusiasmo (1967)
 Desnudo en el tejado (1969) Publié en français sous le titre Le Cycliste de San Cristobal, traduit par Laure Bataillon, Paris, Éditions du Seuil, coll. « Points. Virgule » no 27, 1984  (ISBN 2-02-006908-3) ; réédition, Paris, Seuil, coll. « Points. Virgule » no 52, 2002  (ISBN 2-02-055085-7)
 Tiro libre (1974)
 Novios y solitarios (1975)
 Uno a uno: cuentos completos (1996), anthologie de ses contes
-Neruda por Skármeta (2004), poèmes et anecdotes sur Neruda Publié en français sous le titre Neruda par Skármeta, traduit par Alice Seelow, Paris, Grasset, 2006  (ISBN 2-246-68701-2)
-Ouvrages de littérature d'enfance et de jeunesse
-La composición (1998) Publié en français sous le titre La Rédaction, traduit par Marianne Millon, Paris, Syros jeunesse, 2003 ; réédition, Paris, Éditions Les Incorruptibles, 2004  (ISBN 2-7511-0066-X) ; réédition, Paris, Syros, 2007  (ISBN 978-274-850554-2)
-El portero de la cordillera (2012)
-Théâtre
-La búsqueda (1976)
+Neruda por Skármeta (2004), poèmes et anecdotes sur Neruda Publié en français sous le titre Neruda par Skármeta, traduit par Alice Seelow, Paris, Grasset, 2006  (ISBN 2-246-68701-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Antonio_Skármeta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antonio_Sk%C3%A1rmeta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La composición (1998) Publié en français sous le titre La Rédaction, traduit par Marianne Millon, Paris, Syros jeunesse, 2003 ; réédition, Paris, Éditions Les Incorruptibles, 2004  (ISBN 2-7511-0066-X) ; réédition, Paris, Syros, 2007  (ISBN 978-274-850554-2)
+El portero de la cordillera (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antonio_Skármeta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antonio_Sk%C3%A1rmeta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La búsqueda (1976)
 No pasó nada (1977)
 La mancha (1978)
 La composición (1979)
-Dieciocho kilates (2010)
-Œuvres collectives
-Digno : neuf livres pour aborder la discrimination, 2005, textes (OCLC 717636287)
+Dieciocho kilates (2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Antonio_Skármeta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antonio_Sk%C3%A1rmeta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Œuvres collectives</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Digno : neuf livres pour aborder la discrimination, 2005, textes (OCLC 717636287)
 Nouvelles du monde contemporain, 2013, nouvelles  (ISBN 9782218966668)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Antonio_Sk%C3%A1rmeta</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Antonio_Skármeta</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Antonio_Sk%C3%A1rmeta</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1983 : Ardiente paciencia (es), film espagnol dirigé par Skármeta, selon un scenario de l'auteur.
 1994 : Le Facteur (Il postino), film franco-belgo-italien réalisé par Michael Radford, adaptation du roman Une ardente patience
